--- a/B-pojat.xlsx
+++ b/B-pojat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B1E9A5-10D0-4315-9F01-ADE3B9C6A144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244BEE4B-88EA-4557-8120-137842B5F5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24" yWindow="1164" windowWidth="23124" windowHeight="12240" tabRatio="880" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="880" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="B 2023-2026" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="117">
   <si>
     <t>päivä</t>
   </si>
@@ -374,13 +374,22 @@
     <t>A-Volley</t>
   </si>
   <si>
-    <t>Lounas 2</t>
-  </si>
-  <si>
-    <t>Lempo 2</t>
-  </si>
-  <si>
     <t>2025-2026</t>
+  </si>
+  <si>
+    <t>PuMa AB</t>
+  </si>
+  <si>
+    <t>Viesti White</t>
+  </si>
+  <si>
+    <t>25-10,25-12</t>
+  </si>
+  <si>
+    <t>25-5,25-127</t>
+  </si>
+  <si>
+    <t>25-23,19-25,12-15</t>
   </si>
 </sst>
 </file>
@@ -421,7 +430,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,6 +446,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -515,6 +530,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -835,7 +853,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -969,16 +987,40 @@
         <v>110</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+        <v>111</v>
+      </c>
+      <c r="C4" s="11">
+        <f>'B 2025-2026'!Q2</f>
+        <v>3</v>
+      </c>
+      <c r="D4" s="11">
+        <f>'B 2025-2026'!N2</f>
+        <v>2</v>
+      </c>
+      <c r="E4" s="11">
+        <f>'B 2025-2026'!O4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
+        <f>'B 2025-2026'!P2</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="11">
+        <f>'B 2025-2026'!N3</f>
+        <v>4</v>
+      </c>
+      <c r="H4" s="11">
+        <f>'B 2025-2026'!P5</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
+        <f>'B 2025-2026'!N4</f>
+        <v>156</v>
+      </c>
+      <c r="J4" s="11">
+        <f>'B 2025-2026'!P4</f>
+        <v>102</v>
+      </c>
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -988,11 +1030,11 @@
       </c>
       <c r="C5" s="7">
         <f t="shared" ref="C5:J5" si="0">SUM(C2:C4)</f>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" si="0"/>
@@ -1000,11 +1042,11 @@
       </c>
       <c r="F5" s="7">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" s="9">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" si="0"/>
@@ -1012,11 +1054,11 @@
       </c>
       <c r="I5" s="9">
         <f t="shared" si="0"/>
-        <v>2314</v>
+        <v>2470</v>
       </c>
       <c r="J5" s="9">
         <f t="shared" si="0"/>
-        <v>2358</v>
+        <v>2460</v>
       </c>
       <c r="K5" s="8"/>
     </row>
@@ -1034,7 +1076,7 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1042,7 +1084,7 @@
     <col min="1" max="18" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1092,78 +1134,152 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
-        <v>45907</v>
+        <v>45934</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>110</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+        <v>37</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="16">
+        <v>1</v>
+      </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="J2" s="16">
+        <v>50</v>
+      </c>
+      <c r="K2" s="16">
+        <v>17</v>
+      </c>
       <c r="L2" s="16"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="16"/>
+      <c r="M2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="16">
+        <f>SUM(G2:G24)</f>
+        <v>2</v>
+      </c>
       <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
+      <c r="P2" s="16">
+        <f>SUM(I2:I24)</f>
+        <v>1</v>
+      </c>
+      <c r="Q2" s="16">
+        <f>SUM(N2:P2)</f>
+        <v>3</v>
+      </c>
+      <c r="R2" s="16">
+        <f>Q2*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
-        <v>45907</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="A3" s="22">
+        <v>45934</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="E3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="13">
+        <v>1</v>
+      </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
+      <c r="J3" s="13">
+        <v>50</v>
+      </c>
+      <c r="K3" s="13">
+        <v>22</v>
+      </c>
       <c r="L3" s="13"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="13"/>
+      <c r="M3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="13">
+        <f>SUM(G2:G24)*2</f>
+        <v>4</v>
+      </c>
       <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
+      <c r="P3" s="13">
+        <f>SUM(I2:I24)*2</f>
+        <v>2</v>
+      </c>
+      <c r="Q3" s="13">
+        <f>SUM(N3:P3)</f>
+        <v>6</v>
+      </c>
       <c r="R3" s="13"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="16"/>
+    <row r="4" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
+        <v>45934</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
+      <c r="I4" s="16">
+        <v>1</v>
+      </c>
+      <c r="J4" s="16">
+        <v>56</v>
+      </c>
+      <c r="K4" s="16">
+        <v>63</v>
+      </c>
       <c r="L4" s="16"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="16"/>
+      <c r="M4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="16">
+        <f>SUM(J2:J24)</f>
+        <v>156</v>
+      </c>
       <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
+      <c r="P4" s="16">
+        <f>SUM(K2:K24)</f>
+        <v>102</v>
+      </c>
+      <c r="Q4" s="16">
+        <f>SUM(N4:P4)</f>
+        <v>258</v>
+      </c>
       <c r="R4" s="16"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -1577,18 +1693,18 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:R1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="18" width="10.77734375" customWidth="1"/>
+    <col min="1" max="17" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1632,11 +1748,8 @@
       <c r="Q1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
         <v>45577</v>
       </c>
@@ -1686,12 +1799,8 @@
         <f>SUM(N2:P2)</f>
         <v>23</v>
       </c>
-      <c r="R2" s="16">
-        <f>SUM(N2:Q2)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>45577</v>
       </c>
@@ -1738,12 +1847,8 @@
         <f>SUM(N3:P3)</f>
         <v>46</v>
       </c>
-      <c r="R3" s="13">
-        <f>SUM(N3:Q3)</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>45577</v>
       </c>
@@ -1790,9 +1895,8 @@
         <f>SUM(N4:P4)</f>
         <v>2197</v>
       </c>
-      <c r="R4" s="16"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>45591</v>
       </c>
@@ -1828,9 +1932,8 @@
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>45591</v>
       </c>
@@ -1866,9 +1969,8 @@
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>45591</v>
       </c>
@@ -1904,9 +2006,8 @@
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>45612</v>
       </c>
@@ -1942,9 +2043,8 @@
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>45612</v>
       </c>
@@ -1980,9 +2080,8 @@
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>45612</v>
       </c>
@@ -2018,9 +2117,8 @@
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>45633</v>
       </c>
@@ -2056,9 +2154,8 @@
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>45633</v>
       </c>
@@ -2094,9 +2191,8 @@
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>45633</v>
       </c>
@@ -2132,9 +2228,8 @@
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>45676</v>
       </c>
@@ -2170,9 +2265,8 @@
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>45676</v>
       </c>
@@ -2208,9 +2302,8 @@
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>45676</v>
       </c>
@@ -2246,9 +2339,8 @@
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>45696</v>
       </c>
@@ -2284,9 +2376,8 @@
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>45696</v>
       </c>
@@ -2322,9 +2413,8 @@
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>45696</v>
       </c>
@@ -2360,9 +2450,8 @@
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>45745</v>
       </c>
@@ -2398,9 +2487,8 @@
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>45745</v>
       </c>
@@ -2436,9 +2524,8 @@
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <v>45745</v>
       </c>
@@ -2474,9 +2561,8 @@
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
       <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>45408</v>
       </c>
@@ -2512,9 +2598,8 @@
       <c r="O23" s="13"/>
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>45408</v>
       </c>
@@ -2550,9 +2635,8 @@
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
       <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2560,7 +2644,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2568,7 +2652,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2576,7 +2660,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2584,7 +2668,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2605,8 +2689,8 @@
   </sheetPr>
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2614,7 +2698,7 @@
     <col min="1" max="18" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>

--- a/B-pojat.xlsx
+++ b/B-pojat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244BEE4B-88EA-4557-8120-137842B5F5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CF9160-7232-4AE2-80E3-0626C81FACE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="880" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="29760" yWindow="960" windowWidth="28800" windowHeight="15285" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="B 2023-2026" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="119">
   <si>
     <t>päivä</t>
   </si>
@@ -390,6 +390,12 @@
   </si>
   <si>
     <t>25-23,19-25,12-15</t>
+  </si>
+  <si>
+    <t>KempeLe</t>
+  </si>
+  <si>
+    <t>JoU</t>
   </si>
 </sst>
 </file>
@@ -852,7 +858,7 @@
   </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -1075,8 +1081,8 @@
   </sheetPr>
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1283,10 +1289,18 @@
       <c r="R4" s="16"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="A5" s="12">
+        <v>45955</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -1303,10 +1317,18 @@
       <c r="R5" s="13"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="A6" s="15">
+        <v>46320</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="E6" s="17"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -1323,10 +1345,18 @@
       <c r="R6" s="16"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="A7" s="12">
+        <v>45955</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>118</v>
+      </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>

--- a/B-pojat.xlsx
+++ b/B-pojat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CF9160-7232-4AE2-80E3-0626C81FACE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CE78DB-65D5-4269-B024-568BCC5372EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="960" windowWidth="28800" windowHeight="15285" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="768" yWindow="192" windowWidth="20604" windowHeight="13200" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="B 2023-2026" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="122">
   <si>
     <t>päivä</t>
   </si>
@@ -396,6 +396,15 @@
   </si>
   <si>
     <t>JoU</t>
+  </si>
+  <si>
+    <t>25-18,25-16</t>
+  </si>
+  <si>
+    <t>25-21,12-25,13-15</t>
+  </si>
+  <si>
+    <t>21-25,21-25</t>
   </si>
 </sst>
 </file>
@@ -997,11 +1006,11 @@
       </c>
       <c r="C4" s="11">
         <f>'B 2025-2026'!Q2</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" s="11">
         <f>'B 2025-2026'!N2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="11">
         <f>'B 2025-2026'!O4</f>
@@ -1009,11 +1018,11 @@
       </c>
       <c r="F4" s="11">
         <f>'B 2025-2026'!P2</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" s="11">
         <f>'B 2025-2026'!N3</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H4" s="11">
         <f>'B 2025-2026'!P5</f>
@@ -1021,11 +1030,11 @@
       </c>
       <c r="I4" s="11">
         <f>'B 2025-2026'!N4</f>
-        <v>156</v>
+        <v>298</v>
       </c>
       <c r="J4" s="11">
         <f>'B 2025-2026'!P4</f>
-        <v>102</v>
+        <v>247</v>
       </c>
       <c r="K4" s="11"/>
     </row>
@@ -1036,11 +1045,11 @@
       </c>
       <c r="C5" s="7">
         <f t="shared" ref="C5:J5" si="0">SUM(C2:C4)</f>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" si="0"/>
@@ -1048,11 +1057,11 @@
       </c>
       <c r="F5" s="7">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G5" s="9">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" si="0"/>
@@ -1060,11 +1069,11 @@
       </c>
       <c r="I5" s="9">
         <f t="shared" si="0"/>
-        <v>2470</v>
+        <v>2612</v>
       </c>
       <c r="J5" s="9">
         <f t="shared" si="0"/>
-        <v>2460</v>
+        <v>2605</v>
       </c>
       <c r="K5" s="8"/>
     </row>
@@ -1082,7 +1091,7 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1174,20 +1183,20 @@
       </c>
       <c r="N2" s="16">
         <f>SUM(G2:G24)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O2" s="16"/>
       <c r="P2" s="16">
         <f>SUM(I2:I24)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="16">
         <f>SUM(N2:P2)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R2" s="16">
         <f>Q2*2</f>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -1226,16 +1235,16 @@
       </c>
       <c r="N3" s="13">
         <f>SUM(G2:G24)*2</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O3" s="13"/>
       <c r="P3" s="13">
         <f>SUM(I2:I24)*2</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q3" s="13">
         <f>SUM(N3:P3)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R3" s="13"/>
     </row>
@@ -1275,16 +1284,16 @@
       </c>
       <c r="N4" s="16">
         <f>SUM(J2:J24)</f>
-        <v>156</v>
+        <v>298</v>
       </c>
       <c r="O4" s="16"/>
       <c r="P4" s="16">
         <f>SUM(K2:K24)</f>
-        <v>102</v>
+        <v>247</v>
       </c>
       <c r="Q4" s="16">
         <f>SUM(N4:P4)</f>
-        <v>258</v>
+        <v>545</v>
       </c>
       <c r="R4" s="16"/>
     </row>
@@ -1301,13 +1310,23 @@
       <c r="D5" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="J5" s="13">
+        <v>50</v>
+      </c>
+      <c r="K5" s="13">
+        <v>34</v>
+      </c>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
@@ -1316,7 +1335,7 @@
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>46320</v>
       </c>
@@ -1329,13 +1348,23 @@
       <c r="D6" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="16"/>
+      <c r="E6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>120</v>
+      </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="I6" s="16">
+        <v>1</v>
+      </c>
+      <c r="J6" s="16">
+        <v>50</v>
+      </c>
+      <c r="K6" s="16">
+        <v>61</v>
+      </c>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
@@ -1357,13 +1386,23 @@
       <c r="D7" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="I7" s="13">
+        <v>1</v>
+      </c>
+      <c r="J7" s="13">
+        <v>42</v>
+      </c>
+      <c r="K7" s="13">
+        <v>50</v>
+      </c>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>

--- a/B-pojat.xlsx
+++ b/B-pojat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CE78DB-65D5-4269-B024-568BCC5372EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679CC270-6D1D-40FC-AD22-64889F956F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="192" windowWidth="20604" windowHeight="13200" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="1092" yWindow="948" windowWidth="20880" windowHeight="12012" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="B 2023-2026" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="126">
   <si>
     <t>päivä</t>
   </si>
@@ -405,6 +405,18 @@
   </si>
   <si>
     <t>21-25,21-25</t>
+  </si>
+  <si>
+    <t>23-25,25-19,25-17</t>
+  </si>
+  <si>
+    <t>OsVa2</t>
+  </si>
+  <si>
+    <t>25-19,15-25,0-25</t>
+  </si>
+  <si>
+    <t>A-V</t>
   </si>
 </sst>
 </file>
@@ -498,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -546,6 +558,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1005,36 +1020,36 @@
         <v>111</v>
       </c>
       <c r="C4" s="11">
+        <f>'B 2025-2026'!R2</f>
+        <v>7</v>
+      </c>
+      <c r="D4" s="11">
+        <f>'B 2025-2026'!O2</f>
+        <v>4</v>
+      </c>
+      <c r="E4" s="11">
+        <f>'B 2025-2026'!P4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
         <f>'B 2025-2026'!Q2</f>
-        <v>6</v>
-      </c>
-      <c r="D4" s="11">
-        <f>'B 2025-2026'!N2</f>
         <v>3</v>
       </c>
-      <c r="E4" s="11">
+      <c r="G4" s="11">
+        <f>'B 2025-2026'!O3</f>
+        <v>9</v>
+      </c>
+      <c r="H4" s="11">
+        <f>'B 2025-2026'!Q5</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
         <f>'B 2025-2026'!O4</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="11">
-        <f>'B 2025-2026'!P2</f>
-        <v>3</v>
-      </c>
-      <c r="G4" s="11">
-        <f>'B 2025-2026'!N3</f>
-        <v>6</v>
-      </c>
-      <c r="H4" s="11">
-        <f>'B 2025-2026'!P5</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="11">
-        <f>'B 2025-2026'!N4</f>
-        <v>298</v>
+        <v>411</v>
       </c>
       <c r="J4" s="11">
-        <f>'B 2025-2026'!P4</f>
-        <v>247</v>
+        <f>'B 2025-2026'!Q4</f>
+        <v>377</v>
       </c>
       <c r="K4" s="11"/>
     </row>
@@ -1045,11 +1060,11 @@
       </c>
       <c r="C5" s="7">
         <f t="shared" ref="C5:J5" si="0">SUM(C2:C4)</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" si="0"/>
@@ -1061,7 +1076,7 @@
       </c>
       <c r="G5" s="9">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" si="0"/>
@@ -1069,11 +1084,11 @@
       </c>
       <c r="I5" s="9">
         <f t="shared" si="0"/>
-        <v>2612</v>
+        <v>2725</v>
       </c>
       <c r="J5" s="9">
         <f t="shared" si="0"/>
-        <v>2605</v>
+        <v>2735</v>
       </c>
       <c r="K5" s="8"/>
     </row>
@@ -1088,18 +1103,18 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="18" width="10.77734375" customWidth="1"/>
+    <col min="1" max="19" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1115,39 +1130,42 @@
         <v>3</v>
       </c>
       <c r="G1" s="18">
+        <v>3</v>
+      </c>
+      <c r="H1" s="18">
         <v>2</v>
       </c>
-      <c r="H1" s="18">
-        <v>1</v>
-      </c>
       <c r="I1" s="18">
+        <v>1</v>
+      </c>
+      <c r="J1" s="18">
         <v>0</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>4</v>
       </c>
       <c r="K1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="18"/>
+      <c r="L1" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="M1" s="18"/>
-      <c r="N1" s="18" t="s">
-        <v>81</v>
-      </c>
+      <c r="N1" s="18"/>
       <c r="O1" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="P1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>5</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>6</v>
       </c>
       <c r="R1" s="18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S1" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
         <v>45934</v>
       </c>
@@ -1166,40 +1184,41 @@
       <c r="F2" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="16">
-        <v>1</v>
-      </c>
-      <c r="H2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16">
+        <v>1</v>
+      </c>
       <c r="I2" s="16"/>
-      <c r="J2" s="16">
+      <c r="J2" s="16"/>
+      <c r="K2" s="16">
         <v>50</v>
       </c>
-      <c r="K2" s="16">
+      <c r="L2" s="16">
         <v>17</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="16"/>
+      <c r="N2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="16">
-        <f>SUM(G2:G24)</f>
+      <c r="O2" s="16">
+        <f>SUM(H2:H24)</f>
+        <v>4</v>
+      </c>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16">
+        <f>SUM(J2:J24)</f>
         <v>3</v>
       </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16">
-        <f>SUM(I2:I24)</f>
-        <v>3</v>
-      </c>
-      <c r="Q2" s="16">
-        <f>SUM(N2:P2)</f>
-        <v>6</v>
-      </c>
       <c r="R2" s="16">
-        <f>Q2*2</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+        <f>SUM(O2:Q2)</f>
+        <v>7</v>
+      </c>
+      <c r="S2" s="16">
+        <f>R2*2</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="22">
         <v>45934</v>
       </c>
@@ -1218,37 +1237,38 @@
       <c r="F3" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="13">
-        <v>1</v>
-      </c>
-      <c r="H3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13">
+        <v>1</v>
+      </c>
       <c r="I3" s="13"/>
-      <c r="J3" s="13">
+      <c r="J3" s="13"/>
+      <c r="K3" s="13">
         <v>50</v>
       </c>
-      <c r="K3" s="13">
+      <c r="L3" s="13">
         <v>22</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="13"/>
+      <c r="N3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="13">
-        <f>SUM(G2:G24)*2</f>
-        <v>6</v>
-      </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13">
-        <f>SUM(I2:I24)*2</f>
-        <v>6</v>
-      </c>
+      <c r="O3" s="13">
+        <f>SUM(H2:H24)*2+SUM(I2:I24)</f>
+        <v>9</v>
+      </c>
+      <c r="P3" s="13"/>
       <c r="Q3" s="13">
-        <f>SUM(N3:P3)</f>
-        <v>12</v>
-      </c>
-      <c r="R3" s="13"/>
-    </row>
-    <row r="4" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+        <f>SUM(J2:J8)*2+2*SUM(I2:I24)+H8</f>
+        <v>9</v>
+      </c>
+      <c r="R3" s="13">
+        <f>SUM(O3:Q3)</f>
+        <v>18</v>
+      </c>
+      <c r="S3" s="13"/>
+    </row>
+    <row r="4" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>45934</v>
       </c>
@@ -1269,35 +1289,36 @@
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="16">
-        <v>1</v>
-      </c>
+      <c r="I4" s="16"/>
       <c r="J4" s="16">
+        <v>1</v>
+      </c>
+      <c r="K4" s="16">
         <v>56</v>
       </c>
-      <c r="K4" s="16">
+      <c r="L4" s="16">
         <v>63</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="16"/>
+      <c r="N4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="16">
-        <f>SUM(J2:J24)</f>
-        <v>298</v>
-      </c>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16">
+      <c r="O4" s="16">
         <f>SUM(K2:K24)</f>
-        <v>247</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="P4" s="16"/>
       <c r="Q4" s="16">
-        <f>SUM(N4:P4)</f>
-        <v>545</v>
-      </c>
-      <c r="R4" s="16"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+        <f>SUM(L2:L24)</f>
+        <v>377</v>
+      </c>
+      <c r="R4" s="16">
+        <f>SUM(O4:Q4)</f>
+        <v>788</v>
+      </c>
+      <c r="S4" s="16"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>45955</v>
       </c>
@@ -1316,26 +1337,27 @@
       <c r="F5" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="13">
-        <v>1</v>
-      </c>
-      <c r="H5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13">
+        <v>1</v>
+      </c>
       <c r="I5" s="13"/>
-      <c r="J5" s="13">
+      <c r="J5" s="13"/>
+      <c r="K5" s="13">
         <v>50</v>
       </c>
-      <c r="K5" s="13">
+      <c r="L5" s="13">
         <v>34</v>
       </c>
-      <c r="L5" s="13"/>
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
-    </row>
-    <row r="6" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="S5" s="13"/>
+    </row>
+    <row r="6" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>46320</v>
       </c>
@@ -1356,24 +1378,25 @@
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="16">
-        <v>1</v>
-      </c>
+      <c r="I6" s="16"/>
       <c r="J6" s="16">
+        <v>1</v>
+      </c>
+      <c r="K6" s="16">
         <v>50</v>
       </c>
-      <c r="K6" s="16">
+      <c r="L6" s="16">
         <v>61</v>
       </c>
-      <c r="L6" s="16"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6" s="16"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>45955</v>
       </c>
@@ -1394,64 +1417,103 @@
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="13">
-        <v>1</v>
-      </c>
+      <c r="I7" s="13"/>
       <c r="J7" s="13">
+        <v>1</v>
+      </c>
+      <c r="K7" s="13">
         <v>42</v>
       </c>
-      <c r="K7" s="13">
+      <c r="L7" s="13">
         <v>50</v>
       </c>
-      <c r="L7" s="13"/>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="S7" s="13"/>
+    </row>
+    <row r="8" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>45976</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>122</v>
+      </c>
       <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="H8" s="16">
+        <v>1</v>
+      </c>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
+      <c r="K8" s="16">
+        <v>73</v>
+      </c>
+      <c r="L8" s="16">
+        <v>61</v>
+      </c>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13"/>
+      <c r="S8" s="16"/>
+    </row>
+    <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="22">
+        <v>45976</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>124</v>
+      </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
+      <c r="I9" s="13">
+        <v>1</v>
+      </c>
       <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="K9" s="13">
+        <v>40</v>
+      </c>
+      <c r="L9" s="13">
+        <v>69</v>
+      </c>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S9" s="13"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -1470,8 +1532,9 @@
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S10" s="16"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -1490,8 +1553,9 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S11" s="13"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -1510,8 +1574,9 @@
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S12" s="16"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -1530,8 +1595,9 @@
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S13" s="13"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -1550,8 +1616,9 @@
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S14" s="16"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -1570,8 +1637,9 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S15" s="13"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -1590,8 +1658,9 @@
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S16" s="16"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -1610,8 +1679,9 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S17" s="13"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -1630,8 +1700,9 @@
       <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S18" s="16"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -1650,8 +1721,9 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S19" s="13"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -1670,8 +1742,9 @@
       <c r="P20" s="16"/>
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S20" s="16"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -1690,8 +1763,9 @@
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
       <c r="R21" s="13"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S21" s="13"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -1710,8 +1784,9 @@
       <c r="P22" s="16"/>
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S22" s="16"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -1730,8 +1805,9 @@
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S23" s="13"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -1750,6 +1826,7 @@
       <c r="P24" s="16"/>
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/B-pojat.xlsx
+++ b/B-pojat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679CC270-6D1D-40FC-AD22-64889F956F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12C83C0-0084-444B-9E97-5C8EBAE82FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1092" yWindow="948" windowWidth="20880" windowHeight="12012" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="21876" windowHeight="12012" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="B 2023-2026" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="128">
   <si>
     <t>päivä</t>
   </si>
@@ -417,6 +417,12 @@
   </si>
   <si>
     <t>A-V</t>
+  </si>
+  <si>
+    <t>PuMa Spike</t>
+  </si>
+  <si>
+    <t>PuMa Smash</t>
   </si>
 </sst>
 </file>
@@ -1105,8 +1111,8 @@
   </sheetPr>
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1514,10 +1520,18 @@
       <c r="S9" s="13"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="A10" s="15">
+        <v>45997</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>126</v>
+      </c>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -1535,10 +1549,18 @@
       <c r="S10" s="16"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="A11" s="12">
+        <v>45997</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="E11" s="14"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -1556,10 +1578,18 @@
       <c r="S11" s="13"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="A12" s="15">
+        <v>45997</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>93</v>
+      </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -1576,11 +1606,19 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+    <row r="13" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>45997</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>127</v>
+      </c>
       <c r="E13" s="14"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>

--- a/B-pojat.xlsx
+++ b/B-pojat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12C83C0-0084-444B-9E97-5C8EBAE82FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754F2DD2-23B3-4E6A-8DEA-38A66BEC351B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="21876" windowHeight="12012" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="21876" windowHeight="12012" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="B 2023-2026" sheetId="10" r:id="rId1"/>
@@ -1112,7 +1112,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1530,7 +1530,7 @@
         <v>110</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
@@ -1559,7 +1559,7 @@
         <v>110</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="13"/>
@@ -1577,7 +1577,7 @@
       <c r="R11" s="13"/>
       <c r="S11" s="13"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>45997</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>110</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
@@ -1606,7 +1606,7 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>45997</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>110</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="13"/>

--- a/B-pojat.xlsx
+++ b/B-pojat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754F2DD2-23B3-4E6A-8DEA-38A66BEC351B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE5B76E-838C-4A32-881C-067A1D4CA760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="21876" windowHeight="12012" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="132">
   <si>
     <t>päivä</t>
   </si>
@@ -423,6 +423,18 @@
   </si>
   <si>
     <t>PuMa Smash</t>
+  </si>
+  <si>
+    <t>25-19,24-26</t>
+  </si>
+  <si>
+    <t>25-20,20-25</t>
+  </si>
+  <si>
+    <t>25-18,22-25</t>
+  </si>
+  <si>
+    <t>25-19,15-25</t>
   </si>
 </sst>
 </file>
@@ -889,7 +901,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1027,35 +1039,35 @@
       </c>
       <c r="C4" s="11">
         <f>'B 2025-2026'!R2</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D4" s="11">
         <f>'B 2025-2026'!O2</f>
         <v>4</v>
       </c>
       <c r="E4" s="11">
-        <f>'B 2025-2026'!P4</f>
-        <v>0</v>
+        <f>'B 2025-2026'!P2</f>
+        <v>4</v>
       </c>
       <c r="F4" s="11">
         <f>'B 2025-2026'!Q2</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" s="11">
         <f>'B 2025-2026'!O3</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H4" s="11">
-        <f>'B 2025-2026'!Q5</f>
-        <v>0</v>
+        <f>'B 2025-2026'!Q3</f>
+        <v>13</v>
       </c>
       <c r="I4" s="11">
         <f>'B 2025-2026'!O4</f>
-        <v>411</v>
+        <v>592</v>
       </c>
       <c r="J4" s="11">
         <f>'B 2025-2026'!Q4</f>
-        <v>377</v>
+        <v>554</v>
       </c>
       <c r="K4" s="11"/>
     </row>
@@ -1066,7 +1078,7 @@
       </c>
       <c r="C5" s="7">
         <f t="shared" ref="C5:J5" si="0">SUM(C2:C4)</f>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
@@ -1074,27 +1086,27 @@
       </c>
       <c r="E5" s="7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F5" s="7">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" s="9">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="I5" s="9">
         <f t="shared" si="0"/>
-        <v>2725</v>
+        <v>2906</v>
       </c>
       <c r="J5" s="9">
         <f t="shared" si="0"/>
-        <v>2735</v>
+        <v>2912</v>
       </c>
       <c r="K5" s="8"/>
     </row>
@@ -1112,7 +1124,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1210,18 +1222,21 @@
         <f>SUM(H2:H24)</f>
         <v>4</v>
       </c>
-      <c r="P2" s="16"/>
+      <c r="P2" s="16">
+        <f>SUM(I10:I13)</f>
+        <v>4</v>
+      </c>
       <c r="Q2" s="16">
-        <f>SUM(J2:J24)</f>
-        <v>3</v>
+        <f>SUM(J2:J24)+I9</f>
+        <v>4</v>
       </c>
       <c r="R2" s="16">
         <f>SUM(O2:Q2)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="S2" s="16">
         <f>R2*2</f>
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -1261,16 +1276,16 @@
       </c>
       <c r="O3" s="13">
         <f>SUM(H2:H24)*2+SUM(I2:I24)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="P3" s="13"/>
       <c r="Q3" s="13">
-        <f>SUM(J2:J8)*2+2*SUM(I2:I24)+H8</f>
-        <v>9</v>
+        <f>SUM(J2:J24)*2+SUM(I10:I13)+H8+I9*2</f>
+        <v>13</v>
       </c>
       <c r="R3" s="13">
         <f>SUM(O3:Q3)</f>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="S3" s="13"/>
     </row>
@@ -1311,16 +1326,16 @@
       </c>
       <c r="O4" s="16">
         <f>SUM(K2:K24)</f>
-        <v>411</v>
+        <v>592</v>
       </c>
       <c r="P4" s="16"/>
       <c r="Q4" s="16">
         <f>SUM(L2:L24)</f>
-        <v>377</v>
+        <v>554</v>
       </c>
       <c r="R4" s="16">
         <f>SUM(O4:Q4)</f>
-        <v>788</v>
+        <v>1146</v>
       </c>
       <c r="S4" s="16"/>
     </row>
@@ -1337,7 +1352,7 @@
       <c r="D5" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="13" t="s">
@@ -1415,7 +1430,7 @@
       <c r="D7" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="13" t="s">
@@ -1532,14 +1547,24 @@
       <c r="D10" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="E10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>128</v>
+      </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="I10" s="16">
+        <v>1</v>
+      </c>
       <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
+      <c r="K10" s="16">
+        <v>49</v>
+      </c>
+      <c r="L10" s="16">
+        <v>45</v>
+      </c>
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -1561,14 +1586,24 @@
       <c r="D11" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="13"/>
+      <c r="E11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>129</v>
+      </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="I11" s="13">
+        <v>1</v>
+      </c>
       <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="K11" s="13">
+        <v>45</v>
+      </c>
+      <c r="L11" s="13">
+        <v>45</v>
+      </c>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
@@ -1590,14 +1625,24 @@
       <c r="D12" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
+      <c r="E12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>130</v>
+      </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
+      <c r="I12" s="16">
+        <v>1</v>
+      </c>
       <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
+      <c r="K12" s="16">
+        <v>47</v>
+      </c>
+      <c r="L12" s="16">
+        <v>43</v>
+      </c>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
@@ -1619,14 +1664,24 @@
       <c r="D13" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13"/>
+      <c r="E13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>131</v>
+      </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="I13" s="13">
+        <v>1</v>
+      </c>
       <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="K13" s="13">
+        <v>40</v>
+      </c>
+      <c r="L13" s="13">
+        <v>44</v>
+      </c>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
@@ -1661,7 +1716,7 @@
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
@@ -1682,7 +1737,7 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -1703,7 +1758,7 @@
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -1724,7 +1779,7 @@
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -1745,7 +1800,7 @@
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
@@ -1808,7 +1863,7 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="E22" s="17"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>

--- a/B-pojat.xlsx
+++ b/B-pojat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE5B76E-838C-4A32-881C-067A1D4CA760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A23BC9-2F80-4740-ABA8-D331056E7915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="21876" windowHeight="12012" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="22716" windowHeight="12828" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="B 2023-2026" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="134">
   <si>
     <t>päivä</t>
   </si>
@@ -435,6 +435,12 @@
   </si>
   <si>
     <t>25-19,15-25</t>
+  </si>
+  <si>
+    <t>19-25,25-14,25-17</t>
+  </si>
+  <si>
+    <t>25-20,25-21,18-25</t>
   </si>
 </sst>
 </file>
@@ -1039,11 +1045,11 @@
       </c>
       <c r="C4" s="11">
         <f>'B 2025-2026'!R2</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="11">
         <f>'B 2025-2026'!O2</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4" s="11">
         <f>'B 2025-2026'!P2</f>
@@ -1055,7 +1061,7 @@
       </c>
       <c r="G4" s="11">
         <f>'B 2025-2026'!O3</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H4" s="11">
         <f>'B 2025-2026'!Q3</f>
@@ -1063,11 +1069,11 @@
       </c>
       <c r="I4" s="11">
         <f>'B 2025-2026'!O4</f>
-        <v>592</v>
+        <v>729</v>
       </c>
       <c r="J4" s="11">
         <f>'B 2025-2026'!Q4</f>
-        <v>554</v>
+        <v>676</v>
       </c>
       <c r="K4" s="11"/>
     </row>
@@ -1078,11 +1084,11 @@
       </c>
       <c r="C5" s="7">
         <f t="shared" ref="C5:J5" si="0">SUM(C2:C4)</f>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" si="0"/>
@@ -1094,7 +1100,7 @@
       </c>
       <c r="G5" s="9">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" si="0"/>
@@ -1102,11 +1108,11 @@
       </c>
       <c r="I5" s="9">
         <f t="shared" si="0"/>
-        <v>2906</v>
+        <v>3043</v>
       </c>
       <c r="J5" s="9">
         <f t="shared" si="0"/>
-        <v>2912</v>
+        <v>3034</v>
       </c>
       <c r="K5" s="8"/>
     </row>
@@ -1124,7 +1130,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1220,7 +1226,7 @@
       </c>
       <c r="O2" s="16">
         <f>SUM(H2:H24)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P2" s="16">
         <f>SUM(I10:I13)</f>
@@ -1232,11 +1238,11 @@
       </c>
       <c r="R2" s="16">
         <f>SUM(O2:Q2)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S2" s="16">
         <f>R2*2</f>
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -1276,7 +1282,7 @@
       </c>
       <c r="O3" s="13">
         <f>SUM(H2:H24)*2+SUM(I2:I24)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="P3" s="13"/>
       <c r="Q3" s="13">
@@ -1285,7 +1291,7 @@
       </c>
       <c r="R3" s="13">
         <f>SUM(O3:Q3)</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="S3" s="13"/>
     </row>
@@ -1326,16 +1332,16 @@
       </c>
       <c r="O4" s="16">
         <f>SUM(K2:K24)</f>
-        <v>592</v>
+        <v>729</v>
       </c>
       <c r="P4" s="16"/>
       <c r="Q4" s="16">
         <f>SUM(L2:L24)</f>
-        <v>554</v>
+        <v>676</v>
       </c>
       <c r="R4" s="16">
         <f>SUM(O4:Q4)</f>
-        <v>1146</v>
+        <v>1405</v>
       </c>
       <c r="S4" s="16"/>
     </row>
@@ -1690,19 +1696,37 @@
       <c r="R13" s="13"/>
       <c r="S13" s="13"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="16"/>
+    <row r="14" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>45308</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>132</v>
+      </c>
       <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="H14" s="16">
+        <v>1</v>
+      </c>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
+      <c r="K14" s="16">
+        <v>69</v>
+      </c>
+      <c r="L14" s="16">
+        <v>56</v>
+      </c>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
@@ -1711,19 +1735,37 @@
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="13"/>
+    <row r="15" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="22">
+        <v>45308</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>133</v>
+      </c>
       <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="H15" s="13">
+        <v>1</v>
+      </c>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="K15" s="13">
+        <v>68</v>
+      </c>
+      <c r="L15" s="13">
+        <v>66</v>
+      </c>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>

--- a/B-pojat.xlsx
+++ b/B-pojat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A23BC9-2F80-4740-ABA8-D331056E7915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62EAA54-53B2-4DBC-92B5-EFD4061EE1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="22716" windowHeight="12828" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="324" yWindow="384" windowWidth="21156" windowHeight="12828" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="B 2023-2026" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="134">
   <si>
     <t>päivä</t>
   </si>
@@ -1129,8 +1129,8 @@
   </sheetPr>
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="15" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="22">
-        <v>45308</v>
+        <v>45674</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>7</v>
@@ -1775,10 +1775,18 @@
       <c r="S15" s="13"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
+      <c r="A16" s="15">
+        <v>46060</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="E16" s="17"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -1796,10 +1804,18 @@
       <c r="S16" s="16"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="A17" s="22">
+        <v>46060</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="E17" s="14"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
@@ -1817,10 +1833,18 @@
       <c r="S17" s="13"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+      <c r="A18" s="15">
+        <v>46060</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>107</v>
+      </c>
       <c r="E18" s="17"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>

--- a/B-pojat.xlsx
+++ b/B-pojat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62EAA54-53B2-4DBC-92B5-EFD4061EE1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866738DF-5237-464D-9237-2A261F001AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="324" yWindow="384" windowWidth="21156" windowHeight="12828" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="768" yWindow="156" windowWidth="21156" windowHeight="12828" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="B 2023-2026" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="137">
   <si>
     <t>päivä</t>
   </si>
@@ -441,6 +441,15 @@
   </si>
   <si>
     <t>25-20,25-21,18-25</t>
+  </si>
+  <si>
+    <t>25-23.25-13</t>
+  </si>
+  <si>
+    <t>23-25,25-23,12-15</t>
+  </si>
+  <si>
+    <t>20-25,26-24,15-13</t>
   </si>
 </sst>
 </file>
@@ -1045,11 +1054,11 @@
       </c>
       <c r="C4" s="11">
         <f>'B 2025-2026'!R2</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="11">
         <f>'B 2025-2026'!O2</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4" s="11">
         <f>'B 2025-2026'!P2</f>
@@ -1061,7 +1070,7 @@
       </c>
       <c r="G4" s="11">
         <f>'B 2025-2026'!O3</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H4" s="11">
         <f>'B 2025-2026'!Q3</f>
@@ -1069,11 +1078,11 @@
       </c>
       <c r="I4" s="11">
         <f>'B 2025-2026'!O4</f>
-        <v>729</v>
+        <v>900</v>
       </c>
       <c r="J4" s="11">
         <f>'B 2025-2026'!Q4</f>
-        <v>676</v>
+        <v>837</v>
       </c>
       <c r="K4" s="11"/>
     </row>
@@ -1084,11 +1093,11 @@
       </c>
       <c r="C5" s="7">
         <f t="shared" ref="C5:J5" si="0">SUM(C2:C4)</f>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" si="0"/>
@@ -1100,7 +1109,7 @@
       </c>
       <c r="G5" s="9">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" si="0"/>
@@ -1108,11 +1117,11 @@
       </c>
       <c r="I5" s="9">
         <f t="shared" si="0"/>
-        <v>3043</v>
+        <v>3214</v>
       </c>
       <c r="J5" s="9">
         <f t="shared" si="0"/>
-        <v>3034</v>
+        <v>3195</v>
       </c>
       <c r="K5" s="8"/>
     </row>
@@ -1130,7 +1139,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1226,7 +1235,7 @@
       </c>
       <c r="O2" s="16">
         <f>SUM(H2:H24)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P2" s="16">
         <f>SUM(I10:I13)</f>
@@ -1238,11 +1247,11 @@
       </c>
       <c r="R2" s="16">
         <f>SUM(O2:Q2)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S2" s="16">
         <f>R2*2</f>
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -1282,7 +1291,7 @@
       </c>
       <c r="O3" s="13">
         <f>SUM(H2:H24)*2+SUM(I2:I24)</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="P3" s="13"/>
       <c r="Q3" s="13">
@@ -1291,7 +1300,7 @@
       </c>
       <c r="R3" s="13">
         <f>SUM(O3:Q3)</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="S3" s="13"/>
     </row>
@@ -1332,16 +1341,16 @@
       </c>
       <c r="O4" s="16">
         <f>SUM(K2:K24)</f>
-        <v>729</v>
+        <v>900</v>
       </c>
       <c r="P4" s="16"/>
       <c r="Q4" s="16">
         <f>SUM(L2:L24)</f>
-        <v>676</v>
+        <v>837</v>
       </c>
       <c r="R4" s="16">
         <f>SUM(O4:Q4)</f>
-        <v>1405</v>
+        <v>1737</v>
       </c>
       <c r="S4" s="16"/>
     </row>
@@ -1774,7 +1783,7 @@
       <c r="R15" s="13"/>
       <c r="S15" s="13"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>46060</v>
       </c>
@@ -1787,14 +1796,24 @@
       <c r="D16" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="16"/>
+      <c r="E16" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="H16" s="16">
+        <v>1</v>
+      </c>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
+      <c r="K16" s="16">
+        <v>61</v>
+      </c>
+      <c r="L16" s="16">
+        <v>62</v>
+      </c>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
@@ -1803,7 +1822,7 @@
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="22">
         <v>46060</v>
       </c>
@@ -1816,14 +1835,24 @@
       <c r="D17" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="13"/>
+      <c r="E17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>135</v>
+      </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="I17" s="13">
+        <v>1</v>
+      </c>
       <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="K17" s="13">
+        <v>60</v>
+      </c>
+      <c r="L17" s="13">
+        <v>63</v>
+      </c>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
@@ -1832,7 +1861,7 @@
       <c r="R17" s="13"/>
       <c r="S17" s="13"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>46060</v>
       </c>
@@ -1845,14 +1874,22 @@
       <c r="D18" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="16"/>
+      <c r="E18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>134</v>
+      </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
+      <c r="K18" s="16">
+        <v>50</v>
+      </c>
+      <c r="L18" s="16">
+        <v>36</v>
+      </c>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
@@ -1869,7 +1906,9 @@
       <c r="E19" s="14"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="H19" s="13">
+        <v>1</v>
+      </c>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>

--- a/B-pojat.xlsx
+++ b/B-pojat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866738DF-5237-464D-9237-2A261F001AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E9DDE9-73E6-41F4-9E21-8899D4E4341F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="156" windowWidth="21156" windowHeight="12828" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="140">
   <si>
     <t>päivä</t>
   </si>
@@ -450,6 +450,15 @@
   </si>
   <si>
     <t>20-25,26-24,15-13</t>
+  </si>
+  <si>
+    <t>Jankko1</t>
+  </si>
+  <si>
+    <t>Jou</t>
+  </si>
+  <si>
+    <t>OsVa1</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1148,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1899,10 +1908,18 @@
       <c r="S18" s="16"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="A19" s="12">
+        <v>46095</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>137</v>
+      </c>
       <c r="E19" s="14"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -1922,10 +1939,18 @@
       <c r="S19" s="13"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
+      <c r="A20" s="15">
+        <v>45730</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>138</v>
+      </c>
       <c r="E20" s="17"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -1943,10 +1968,18 @@
       <c r="S20" s="16"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="A21" s="12">
+        <v>46095</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>139</v>
+      </c>
       <c r="E21" s="14"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>

--- a/B-pojat.xlsx
+++ b/B-pojat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E9DDE9-73E6-41F4-9E21-8899D4E4341F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F8E439-5229-4890-9BBB-D8A3E2B877E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="156" windowWidth="21156" windowHeight="12828" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="139">
   <si>
     <t>päivä</t>
   </si>
@@ -453,9 +453,6 @@
   </si>
   <si>
     <t>Jankko1</t>
-  </si>
-  <si>
-    <t>Jou</t>
   </si>
   <si>
     <t>OsVa1</t>
@@ -1148,7 +1145,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1918,7 +1915,7 @@
         <v>110</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="13"/>
@@ -1949,7 +1946,7 @@
         <v>110</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="16"/>
@@ -1978,7 +1975,7 @@
         <v>110</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="13"/>
